--- a/medicine/Psychotrope/Grignolino_d'Asti/Grignolino_d'Asti.xlsx
+++ b/medicine/Psychotrope/Grignolino_d'Asti/Grignolino_d'Asti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grignolino_d%27Asti</t>
+          <t>Grignolino_d'Asti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Grignolino d'Asti est un vin rouge italien de la région Piémont doté d'une appellation DOC depuis le 29 mai 1973. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grignolino_d%27Asti</t>
+          <t>Grignolino_d'Asti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir l'article Freisa d'Asti
 La superficie plantée en vignes est de 419 hectares.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grignolino_d%27Asti</t>
+          <t>Grignolino_d'Asti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis pâle avec tendance à l’orange s’il a vieilli.
 odeur : vineux, délicat.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grignolino_d%27Asti</t>
+          <t>Grignolino_d'Asti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grignolino_d%27Asti</t>
+          <t>Grignolino_d'Asti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hors-d’œuvre de charcuterie, potages aux pâtes et plats de pâtes relevées, fritures, volailles à la sauce tomate ou rôti.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grignolino_d%27Asti</t>
+          <t>Grignolino_d'Asti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
